--- a/student/danh-sach-lop.xlsx
+++ b/student/danh-sach-lop.xlsx
@@ -95,7 +95,7 @@
     <t>K65CNTTB</t>
   </si>
   <si>
-    <t>K65-Công nghệ thông tin B</t>
+    <t>K65-Mạng máy tính</t>
   </si>
   <si>
     <t>K65CNTTC</t>
@@ -269,13 +269,13 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
         <v>25</v>
